--- a/outputs-r202/train-g__UBA4951.xlsx
+++ b/outputs-r202/train-g__UBA4951.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="460">
   <si>
     <t>Row</t>
   </si>
@@ -1133,6 +1134,270 @@
   </si>
   <si>
     <t>GB_GCA_902802355.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002296455.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002478085.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002478085.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002478085.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002478085.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002478085.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002297365.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002297365.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002297365.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002316075.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002476715.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002476715.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_003503755.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314915.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314915.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314915.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314915.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314915.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314915.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314915.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314915.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002314915.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002395465.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002395465.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002395465.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002395465.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002395465.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002395465.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002397465.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002397465.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002483615.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002483615.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002438825.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002438825.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002438925.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002438995.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002440125.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002440125.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002449265.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002449265.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002449265.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002449265.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002449265.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002478915.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002478915.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002478915.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_002478915.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320745.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320745.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902763255.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902775805.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321485.1_18.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321485.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777395.1_10.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777395.1_16.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777395.1_19.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902791935.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540385.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540385.1_12.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900768975.1_2.fasta</t>
+  </si>
+  <si>
+    <t>RS_GCF_900768975.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900542595.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900542595.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900542595.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900542595.1_4.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_900542595.1_5.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902781615.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902781615.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902791085.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902791085.1_11.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902791085.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902791085.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902791085.1_2.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902793515.1_0.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902793515.1_14.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902793515.1_17.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902793515.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902793515.1_9.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800255.1_12.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800255.1_13.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800255.1_3.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800255.1_6.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902800255.1_7.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902777925.1_1.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902780105.1_8.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902781915.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802355.1_15.fasta</t>
+  </si>
+  <si>
+    <t>GB_GCA_902802355.1_2.fasta</t>
   </si>
 </sst>
 </file>
@@ -1153,7 +1418,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1169,11 +1434,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -1183,6 +1450,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -23384,4 +23653,5553 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T89"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" customWidth="true"/>
+    <col min="2" max="2" width="23.140625" customWidth="true"/>
+    <col min="3" max="3" width="23.140625" customWidth="true"/>
+    <col min="4" max="4" width="23.140625" customWidth="true"/>
+    <col min="5" max="5" width="23.140625" customWidth="true"/>
+    <col min="6" max="6" width="23.140625" customWidth="true"/>
+    <col min="7" max="7" width="23.140625" customWidth="true"/>
+    <col min="8" max="8" width="23.140625" customWidth="true"/>
+    <col min="9" max="9" width="23.140625" customWidth="true"/>
+    <col min="10" max="10" width="23.140625" customWidth="true"/>
+    <col min="11" max="11" width="23.140625" customWidth="true"/>
+    <col min="12" max="12" width="23.140625" customWidth="true"/>
+    <col min="13" max="13" width="23.140625" customWidth="true"/>
+    <col min="14" max="14" width="23.140625" customWidth="true"/>
+    <col min="15" max="15" width="23.140625" customWidth="true"/>
+    <col min="16" max="16" width="23.140625" customWidth="true"/>
+    <col min="17" max="17" width="23.140625" customWidth="true"/>
+    <col min="18" max="18" width="23.140625" customWidth="true"/>
+    <col min="19" max="19" width="10.28515625" customWidth="true"/>
+    <col min="20" max="20" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2">
+        <v>0.92590943989296692</v>
+      </c>
+      <c r="C2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="D2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="E2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="F2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="G2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="H2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="I2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="J2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="K2">
+        <v>0.074090560106700121</v>
+      </c>
+      <c r="L2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="M2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="N2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="O2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="P2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="Q2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="R2">
+        <v>2.2201335643401166e-14</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3">
+        <v>0.98867569340238171</v>
+      </c>
+      <c r="C3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="D3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="E3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="F3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="G3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="H3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="I3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="J3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="K3">
+        <v>0.011324306597285163</v>
+      </c>
+      <c r="L3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="M3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="N3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="O3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="P3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="Q3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="R3">
+        <v>2.2200856975007009e-14</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4">
+        <v>0.98711064013773342</v>
+      </c>
+      <c r="C4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="D4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="E4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="F4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="G4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="H4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="I4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="J4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="K4">
+        <v>0.012889359861933472</v>
+      </c>
+      <c r="L4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="M4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="N4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="O4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="P4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="Q4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="R4">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B5">
+        <v>0.9951961760906235</v>
+      </c>
+      <c r="C5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="D5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="E5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="F5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="G5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="H5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="I5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="J5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="K5">
+        <v>0.004803823909043544</v>
+      </c>
+      <c r="L5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="M5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="N5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="O5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="P5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="Q5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="R5">
+        <v>2.2200811260077846e-14</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B6">
+        <v>0.99540715991420214</v>
+      </c>
+      <c r="C6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="D6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="E6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="F6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="G6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="H6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="I6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="J6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="K6">
+        <v>0.0045928400854647585</v>
+      </c>
+      <c r="L6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="M6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="N6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="O6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="P6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="Q6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="R6">
+        <v>2.2200809715521506e-14</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7">
+        <v>0.98711064013773342</v>
+      </c>
+      <c r="C7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="D7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="E7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="F7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="G7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="H7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="I7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="J7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="K7">
+        <v>0.012889359861933472</v>
+      </c>
+      <c r="L7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="M7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="N7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="O7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="P7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="Q7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="R7">
+        <v>2.2200877123706819e-14</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="C8">
+        <v>0.99946552164207114</v>
+      </c>
+      <c r="D8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="E8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="F8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="G8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="H8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="I8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="J8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="K8">
+        <v>0.00053447835759567748</v>
+      </c>
+      <c r="L8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="M8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="N8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="O8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="P8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="Q8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="R8">
+        <v>2.2203763486671321e-14</v>
+      </c>
+      <c r="S8">
+        <v>2</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="B9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="C9">
+        <v>0.99999135998287447</v>
+      </c>
+      <c r="D9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="E9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="F9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="G9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="H9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="I9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="J9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="K9">
+        <v>8.6400167924237513e-06</v>
+      </c>
+      <c r="L9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="M9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="N9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="O9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="P9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="Q9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="R9">
+        <v>2.2204449207677365e-14</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="B10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="C10">
+        <v>0.99987019496689156</v>
+      </c>
+      <c r="D10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="E10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="F10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="G10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="H10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="I10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="J10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="K10">
+        <v>0.00012980503277552145</v>
+      </c>
+      <c r="L10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="M10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="N10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="O10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="P10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="Q10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="R10">
+        <v>2.2204291013242043e-14</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="B11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="C11">
+        <v>0.99999498802360132</v>
+      </c>
+      <c r="D11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="E11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="F11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="G11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="H11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="I11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="J11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="K11">
+        <v>5.0119760656070833e-06</v>
+      </c>
+      <c r="L11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="M11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="N11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="O11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="P11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="Q11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="R11">
+        <v>2.2204453946232871e-14</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="B12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="C12">
+        <v>0.99973479334064397</v>
+      </c>
+      <c r="D12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="E12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="F12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="G12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="H12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="I12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="J12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="K12">
+        <v>0.00026520665902300786</v>
+      </c>
+      <c r="L12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="M12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="N12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="O12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="P12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="Q12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="R12">
+        <v>2.2204114365128634e-14</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="B13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="C13">
+        <v>0.99946866298161519</v>
+      </c>
+      <c r="D13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="E13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="F13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="G13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="H13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="I13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="J13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="K13">
+        <v>0.0005313370180517386</v>
+      </c>
+      <c r="L13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="M13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="N13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="O13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="P13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="Q13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="R13">
+        <v>2.2203767576820578e-14</v>
+      </c>
+      <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="C14">
+        <v>0.99219698740499662</v>
+      </c>
+      <c r="D14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="E14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="F14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="G14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="H14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="I14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="J14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="K14">
+        <v>0.0078030125946703822</v>
+      </c>
+      <c r="L14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="M14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="N14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="O14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="P14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="Q14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="R14">
+        <v>2.2200831553856198e-14</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="C15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="D15">
+        <v>0.99335318826243013</v>
+      </c>
+      <c r="E15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="F15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="G15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="H15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="I15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="J15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="K15">
+        <v>0.0066468117372368947</v>
+      </c>
+      <c r="L15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="M15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="N15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="O15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="P15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="Q15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="R15">
+        <v>2.220082761540755e-14</v>
+      </c>
+      <c r="S15">
+        <v>3</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="C16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="D16">
+        <v>0.99323488114772474</v>
+      </c>
+      <c r="E16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="F16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="G16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="H16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="I16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="J16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="K16">
+        <v>0.006765118851942334</v>
+      </c>
+      <c r="L16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="M16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="N16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="O16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="P16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="Q16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="R16">
+        <v>2.2200823536030947e-14</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="B17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="C17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="D17">
+        <v>0.9701282329238079</v>
+      </c>
+      <c r="E17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="F17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="G17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="H17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="I17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="J17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="K17">
+        <v>0.029871767075858945</v>
+      </c>
+      <c r="L17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="M17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="N17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="O17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="P17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="Q17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="R17">
+        <v>2.2201004785497583e-14</v>
+      </c>
+      <c r="S17">
+        <v>3</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="C18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="D18">
+        <v>0.9823277687038936</v>
+      </c>
+      <c r="E18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="F18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="G18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="H18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="I18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="J18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="K18">
+        <v>0.017672231295773375</v>
+      </c>
+      <c r="L18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="M18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="N18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="O18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="P18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="Q18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="R18">
+        <v>2.220090714716565e-14</v>
+      </c>
+      <c r="S18">
+        <v>3</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="B19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="C19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="D19">
+        <v>0.99021848384617062</v>
+      </c>
+      <c r="E19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="F19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="G19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="H19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="I19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="J19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="K19">
+        <v>0.0097815161534964123</v>
+      </c>
+      <c r="L19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="M19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="N19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="O19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="P19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="Q19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="R19">
+        <v>2.220084926894924e-14</v>
+      </c>
+      <c r="S19">
+        <v>3</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="C20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="D20">
+        <v>0.98877472843923198</v>
+      </c>
+      <c r="E20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="F20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="G20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="H20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="I20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="J20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="K20">
+        <v>0.01122527156043511</v>
+      </c>
+      <c r="L20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="M20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="N20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="O20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="P20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="Q20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="R20">
+        <v>2.2200855878186563e-14</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="C21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="D21">
+        <v>0.97047974375772317</v>
+      </c>
+      <c r="E21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="F21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="G21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="H21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="I21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="J21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="K21">
+        <v>0.029520256241943859</v>
+      </c>
+      <c r="L21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="M21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="N21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="O21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="P21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="Q21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="R21">
+        <v>2.2200991094517686e-14</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="C22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="D22">
+        <v>0.98777587409334788</v>
+      </c>
+      <c r="E22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="F22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="G22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="H22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="I22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="J22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="K22">
+        <v>0.012224125906319131</v>
+      </c>
+      <c r="L22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="M22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="N22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="O22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="P22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="Q22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="R22">
+        <v>2.2200863477046592e-14</v>
+      </c>
+      <c r="S22">
+        <v>3</v>
+      </c>
+      <c r="T22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="C23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="D23">
+        <v>0.93119511778101438</v>
+      </c>
+      <c r="E23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="F23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="G23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="H23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="I23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="J23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="K23">
+        <v>0.068804882218652649</v>
+      </c>
+      <c r="L23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="M23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="N23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="O23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="P23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="Q23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="R23">
+        <v>2.2201273804599403e-14</v>
+      </c>
+      <c r="S23">
+        <v>3</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="C24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="D24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="E24">
+        <v>0.91490548176991915</v>
+      </c>
+      <c r="F24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="G24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="H24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="I24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="J24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="K24">
+        <v>0.085094518229747965</v>
+      </c>
+      <c r="L24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="M24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="N24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="O24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="P24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="Q24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="R24">
+        <v>2.2201447522346187e-14</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="C25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="D25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="E25">
+        <v>0.95909706088364177</v>
+      </c>
+      <c r="F25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="G25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="H25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="I25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="J25">
+        <v>0.040149119057955457</v>
+      </c>
+      <c r="K25">
+        <v>0.00075382005809197209</v>
+      </c>
+      <c r="L25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="M25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="N25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="O25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="P25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="Q25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="R25">
+        <v>2.2198151767767226e-14</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="C26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="D26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="E26">
+        <v>0.94828434466006695</v>
+      </c>
+      <c r="F26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="G26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="H26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="I26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="J26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="K26">
+        <v>0.051715655339600125</v>
+      </c>
+      <c r="L26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="M26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="N26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="O26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="P26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="Q26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="R26">
+        <v>2.2201170490834528e-14</v>
+      </c>
+      <c r="S26">
+        <v>4</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="B27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="C27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="D27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="E27">
+        <v>0.96782017341068571</v>
+      </c>
+      <c r="F27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="G27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="H27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="I27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="J27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="K27">
+        <v>0.032179826588981365</v>
+      </c>
+      <c r="L27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="M27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="N27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="O27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="P27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="Q27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="R27">
+        <v>2.2201018639510804e-14</v>
+      </c>
+      <c r="S27">
+        <v>4</v>
+      </c>
+      <c r="T27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="C28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="D28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="E28">
+        <v>0.98899053032876738</v>
+      </c>
+      <c r="F28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="G28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="H28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="I28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="J28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="K28">
+        <v>0.011009469670899675</v>
+      </c>
+      <c r="L28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="M28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="N28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="O28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="P28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="Q28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="R28">
+        <v>2.2200860028526402e-14</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="B29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="C29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="D29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="E29">
+        <v>0.92447470084602268</v>
+      </c>
+      <c r="F29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="G29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="H29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="I29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="J29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="K29">
+        <v>0.075525299153644296</v>
+      </c>
+      <c r="L29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="M29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="N29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="O29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="P29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="Q29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="R29">
+        <v>2.2201367471298662e-14</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="C30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="D30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="E30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="F30">
+        <v>0.9999999999848308</v>
+      </c>
+      <c r="G30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="H30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="I30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="J30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="K30">
+        <v>1.4836112006587407e-11</v>
+      </c>
+      <c r="L30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="M30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="N30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="O30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="P30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="Q30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="R30">
+        <v>2.2204460492482885e-14</v>
+      </c>
+      <c r="S30">
+        <v>5</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="C31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="D31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="E31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="F31">
+        <v>0.66509759649839817</v>
+      </c>
+      <c r="G31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="H31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="I31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="J31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="K31">
+        <v>0.33490240350126871</v>
+      </c>
+      <c r="L31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="M31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="N31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="O31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="P31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="Q31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="R31">
+        <v>2.22032574827046e-14</v>
+      </c>
+      <c r="S31">
+        <v>5</v>
+      </c>
+      <c r="T31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="B32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="C32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="D32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="E32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="F32">
+        <v>0.99999999997966693</v>
+      </c>
+      <c r="G32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="H32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="I32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="J32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="K32">
+        <v>2.0000075195591997e-11</v>
+      </c>
+      <c r="L32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="M32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="N32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="O32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="P32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="Q32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="R32">
+        <v>2.2204460492476142e-14</v>
+      </c>
+      <c r="S32">
+        <v>5</v>
+      </c>
+      <c r="T32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="C33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="E33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="F33">
+        <v>0.99999999999587574</v>
+      </c>
+      <c r="G33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="H33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="I33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="J33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="K33">
+        <v>3.7912443217590013e-12</v>
+      </c>
+      <c r="L33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="M33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="N33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="O33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="P33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="Q33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="R33">
+        <v>2.2204460492497312e-14</v>
+      </c>
+      <c r="S33">
+        <v>5</v>
+      </c>
+      <c r="T33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="B34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="C34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="D34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="E34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="F34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="G34">
+        <v>0.99999999999930533</v>
+      </c>
+      <c r="H34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="I34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="J34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="K34">
+        <v>3.6152879269608328e-13</v>
+      </c>
+      <c r="L34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="M34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="N34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="O34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="P34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="Q34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="R34">
+        <v>2.220446049250179e-14</v>
+      </c>
+      <c r="S34">
+        <v>6</v>
+      </c>
+      <c r="T34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>6</v>
+      </c>
+      <c r="T35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="C36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="D36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="E36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="F36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="G36">
+        <v>0.99999999999960143</v>
+      </c>
+      <c r="H36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="I36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="J36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="K36">
+        <v>6.539600439485321e-14</v>
+      </c>
+      <c r="L36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="M36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="N36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="O36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="P36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="Q36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="R36">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="S36">
+        <v>6</v>
+      </c>
+      <c r="T36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="B37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="C37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="D37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="E37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="F37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="G37">
+        <v>0.99999999978899257</v>
+      </c>
+      <c r="H37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="I37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="J37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="K37">
+        <v>2.1067431555637745e-10</v>
+      </c>
+      <c r="L37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="M37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="N37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="O37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="P37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="Q37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="R37">
+        <v>2.2204460492227093e-14</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="C38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="D38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="E38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="F38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="G38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="H38">
+        <v>0.87458057991759452</v>
+      </c>
+      <c r="I38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="J38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="K38">
+        <v>0.12541942008207255</v>
+      </c>
+      <c r="L38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="M38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="N38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="O38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="P38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="Q38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="R38">
+        <v>2.22017502468531e-14</v>
+      </c>
+      <c r="S38">
+        <v>7</v>
+      </c>
+      <c r="T38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="B39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="C39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="D39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="E39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="F39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="G39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="H39">
+        <v>0.99958833187848317</v>
+      </c>
+      <c r="I39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="J39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="K39">
+        <v>0.00041166812118364842</v>
+      </c>
+      <c r="L39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="M39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="N39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="O39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="P39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="Q39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="R39">
+        <v>2.2203923447089742e-14</v>
+      </c>
+      <c r="S39">
+        <v>7</v>
+      </c>
+      <c r="T39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="C40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="D40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="E40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="F40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="G40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="H40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="I40">
+        <v>0.99999999993136135</v>
+      </c>
+      <c r="J40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="K40">
+        <v>6.8305546654348586e-11</v>
+      </c>
+      <c r="L40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="M40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="N40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="O40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="P40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="Q40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="R40">
+        <v>2.2204460492413052e-14</v>
+      </c>
+      <c r="S40">
+        <v>8</v>
+      </c>
+      <c r="T40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0</v>
+      </c>
+      <c r="S41">
+        <v>8</v>
+      </c>
+      <c r="T41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="B42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="C42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="D42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="E42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="F42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="G42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="H42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="I42">
+        <v>0.99999999999947853</v>
+      </c>
+      <c r="J42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="K42">
+        <v>1.8831380500617992e-13</v>
+      </c>
+      <c r="L42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="M42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="N42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="O42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="P42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="Q42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="R42">
+        <v>2.2204460492502017e-14</v>
+      </c>
+      <c r="S42">
+        <v>8</v>
+      </c>
+      <c r="T42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0</v>
+      </c>
+      <c r="S43">
+        <v>8</v>
+      </c>
+      <c r="T43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="B44">
+        <v>0.051356030797105941</v>
+      </c>
+      <c r="C44">
+        <v>0.051356030797105941</v>
+      </c>
+      <c r="D44">
+        <v>0.051356030797105941</v>
+      </c>
+      <c r="E44">
+        <v>0.051356030797105941</v>
+      </c>
+      <c r="F44">
+        <v>0.051356030797105941</v>
+      </c>
+      <c r="G44">
+        <v>0.12160275240221111</v>
+      </c>
+      <c r="H44">
+        <v>0.051356030797105934</v>
+      </c>
+      <c r="I44">
+        <v>0.10805678563963145</v>
+      </c>
+      <c r="J44">
+        <v>0.051356030797105934</v>
+      </c>
+      <c r="K44">
+        <v>0.05135603079867479</v>
+      </c>
+      <c r="L44">
+        <v>0.051356030797105906</v>
+      </c>
+      <c r="M44">
+        <v>0.051356030797105906</v>
+      </c>
+      <c r="N44">
+        <v>0.051356030797105906</v>
+      </c>
+      <c r="O44">
+        <v>0.051356030797105906</v>
+      </c>
+      <c r="P44">
+        <v>0.051356030797105906</v>
+      </c>
+      <c r="Q44">
+        <v>0.051356030797105906</v>
+      </c>
+      <c r="R44">
+        <v>0.051356030797105878</v>
+      </c>
+      <c r="S44">
+        <v>6</v>
+      </c>
+      <c r="T44">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>8</v>
+      </c>
+      <c r="T45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="C46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="D46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="E46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="F46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="G46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="H46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="I46">
+        <v>0.9999999999942677</v>
+      </c>
+      <c r="J46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="K46">
+        <v>5.3992822618102074e-12</v>
+      </c>
+      <c r="L46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="M46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="N46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="O46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="P46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="Q46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="R46">
+        <v>2.2204460492495214e-14</v>
+      </c>
+      <c r="S46">
+        <v>8</v>
+      </c>
+      <c r="T46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="B47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="C47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="D47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="E47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="F47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="G47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="H47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="I47">
+        <v>0.99999999999960143</v>
+      </c>
+      <c r="J47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="K47">
+        <v>6.556673992879812e-14</v>
+      </c>
+      <c r="L47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="M47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="N47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="O47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="P47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="Q47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="R47">
+        <v>2.2204460492502184e-14</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="C48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="D48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="E48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="F48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="G48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="H48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="I48">
+        <v>0.9999999998461544</v>
+      </c>
+      <c r="J48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="K48">
+        <v>1.5351247312822245e-10</v>
+      </c>
+      <c r="L48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="M48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="N48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="O48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="P48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="Q48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="R48">
+        <v>2.220446049230176e-14</v>
+      </c>
+      <c r="S48">
+        <v>8</v>
+      </c>
+      <c r="T48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="B49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="C49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="D49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="E49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="F49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="G49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="H49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="I49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="J49">
+        <v>0.99423213073080352</v>
+      </c>
+      <c r="K49">
+        <v>0.005767869268863547</v>
+      </c>
+      <c r="L49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="M49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="N49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="O49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="P49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="Q49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="R49">
+        <v>2.2200819505723965e-14</v>
+      </c>
+      <c r="S49">
+        <v>9</v>
+      </c>
+      <c r="T49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="B50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="C50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="D50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="E50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="F50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="G50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="H50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="I50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="J50">
+        <v>0.99548728923291474</v>
+      </c>
+      <c r="K50">
+        <v>0.0045127107667521605</v>
+      </c>
+      <c r="L50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="M50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="N50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="O50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="P50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="Q50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="R50">
+        <v>2.2200808856323718e-14</v>
+      </c>
+      <c r="S50">
+        <v>9</v>
+      </c>
+      <c r="T50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="B51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="C51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="D51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="E51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="F51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="G51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="H51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="I51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="J51">
+        <v>0.99071266515164369</v>
+      </c>
+      <c r="K51">
+        <v>0.0092873348480232674</v>
+      </c>
+      <c r="L51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="M51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="N51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="O51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="P51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="Q51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="R51">
+        <v>2.2200848302283732e-14</v>
+      </c>
+      <c r="S51">
+        <v>9</v>
+      </c>
+      <c r="T51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="B52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="C52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="D52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="E52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="F52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="G52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="H52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="I52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="J52">
+        <v>0.97860056447802501</v>
+      </c>
+      <c r="K52">
+        <v>0.021399435521642009</v>
+      </c>
+      <c r="L52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="M52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="N52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="O52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="P52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="Q52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="R52">
+        <v>2.220093404027113e-14</v>
+      </c>
+      <c r="S52">
+        <v>9</v>
+      </c>
+      <c r="T52">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="B53">
+        <v>0.015962428959633165</v>
+      </c>
+      <c r="C53">
+        <v>0.015962428959633165</v>
+      </c>
+      <c r="D53">
+        <v>0.015962428959633165</v>
+      </c>
+      <c r="E53">
+        <v>0.015962428959633207</v>
+      </c>
+      <c r="F53">
+        <v>0.015962428959633207</v>
+      </c>
+      <c r="G53">
+        <v>0.015962428959633207</v>
+      </c>
+      <c r="H53">
+        <v>0.015962428959633207</v>
+      </c>
+      <c r="I53">
+        <v>0.015962428959633207</v>
+      </c>
+      <c r="J53">
+        <v>0.0159624289596332</v>
+      </c>
+      <c r="K53">
+        <v>0.74460113664586869</v>
+      </c>
+      <c r="L53">
+        <v>0.0159624289596332</v>
+      </c>
+      <c r="M53">
+        <v>0.015962428959633238</v>
+      </c>
+      <c r="N53">
+        <v>0.015962428959633256</v>
+      </c>
+      <c r="O53">
+        <v>0.015962428959633256</v>
+      </c>
+      <c r="P53">
+        <v>0.015962428959633256</v>
+      </c>
+      <c r="Q53">
+        <v>0.015962428959633256</v>
+      </c>
+      <c r="R53">
+        <v>0.01596242895963321</v>
+      </c>
+      <c r="S53">
+        <v>10</v>
+      </c>
+      <c r="T53">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="B54">
+        <v>0.021104627655713078</v>
+      </c>
+      <c r="C54">
+        <v>0.021104627655713078</v>
+      </c>
+      <c r="D54">
+        <v>0.021104627655713078</v>
+      </c>
+      <c r="E54">
+        <v>0.021104627655713127</v>
+      </c>
+      <c r="F54">
+        <v>0.02110462765571313</v>
+      </c>
+      <c r="G54">
+        <v>0.021104627655713127</v>
+      </c>
+      <c r="H54">
+        <v>0.021104627655713127</v>
+      </c>
+      <c r="I54">
+        <v>0.021104627655713127</v>
+      </c>
+      <c r="J54">
+        <v>0.02110462765571312</v>
+      </c>
+      <c r="K54">
+        <v>0.66232595750859014</v>
+      </c>
+      <c r="L54">
+        <v>0.021104627655713123</v>
+      </c>
+      <c r="M54">
+        <v>0.021104627655713123</v>
+      </c>
+      <c r="N54">
+        <v>0.021104627655713123</v>
+      </c>
+      <c r="O54">
+        <v>0.021104627655713123</v>
+      </c>
+      <c r="P54">
+        <v>0.021104627655713123</v>
+      </c>
+      <c r="Q54">
+        <v>0.021104627655713123</v>
+      </c>
+      <c r="R54">
+        <v>0.021104627655713123</v>
+      </c>
+      <c r="S54">
+        <v>10</v>
+      </c>
+      <c r="T54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B55">
+        <v>0.015952947927729062</v>
+      </c>
+      <c r="C55">
+        <v>0.015952947927729062</v>
+      </c>
+      <c r="D55">
+        <v>0.015952947927729062</v>
+      </c>
+      <c r="E55">
+        <v>0.015952947927729111</v>
+      </c>
+      <c r="F55">
+        <v>0.015952947927729114</v>
+      </c>
+      <c r="G55">
+        <v>0.015952947927729114</v>
+      </c>
+      <c r="H55">
+        <v>0.015952947927729114</v>
+      </c>
+      <c r="I55">
+        <v>0.015952947927729114</v>
+      </c>
+      <c r="J55">
+        <v>0.015952947927729114</v>
+      </c>
+      <c r="K55">
+        <v>0.74475283315633078</v>
+      </c>
+      <c r="L55">
+        <v>0.015952947927729565</v>
+      </c>
+      <c r="M55">
+        <v>0.015952947927729607</v>
+      </c>
+      <c r="N55">
+        <v>0.015952947927729607</v>
+      </c>
+      <c r="O55">
+        <v>0.015952947927729607</v>
+      </c>
+      <c r="P55">
+        <v>0.015952947927729607</v>
+      </c>
+      <c r="Q55">
+        <v>0.015952947927729607</v>
+      </c>
+      <c r="R55">
+        <v>0.015952947927729565</v>
+      </c>
+      <c r="S55">
+        <v>10</v>
+      </c>
+      <c r="T55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="B56">
+        <v>0.015947610707127628</v>
+      </c>
+      <c r="C56">
+        <v>0.015947610707127628</v>
+      </c>
+      <c r="D56">
+        <v>0.015947610707127628</v>
+      </c>
+      <c r="E56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="F56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="G56">
+        <v>0.015947610707127677</v>
+      </c>
+      <c r="H56">
+        <v>0.015947610707127677</v>
+      </c>
+      <c r="I56">
+        <v>0.015947610707127677</v>
+      </c>
+      <c r="J56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="K56">
+        <v>0.74483822868595728</v>
+      </c>
+      <c r="L56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="M56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="N56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="O56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="P56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="Q56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="R56">
+        <v>0.015947610707127673</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="T56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="B57">
+        <v>0.010505577100741355</v>
+      </c>
+      <c r="C57">
+        <v>0.010505577100741355</v>
+      </c>
+      <c r="D57">
+        <v>0.010505577100741355</v>
+      </c>
+      <c r="E57">
+        <v>0.010505577100741419</v>
+      </c>
+      <c r="F57">
+        <v>0.010505577100741433</v>
+      </c>
+      <c r="G57">
+        <v>0.010505577100741426</v>
+      </c>
+      <c r="H57">
+        <v>0.010505577100741426</v>
+      </c>
+      <c r="I57">
+        <v>0.010505577100741426</v>
+      </c>
+      <c r="J57">
+        <v>0.010505577100741426</v>
+      </c>
+      <c r="K57">
+        <v>0.8319107663881341</v>
+      </c>
+      <c r="L57">
+        <v>0.010505577100741828</v>
+      </c>
+      <c r="M57">
+        <v>0.010505577100741858</v>
+      </c>
+      <c r="N57">
+        <v>0.010505577100741858</v>
+      </c>
+      <c r="O57">
+        <v>0.010505577100741858</v>
+      </c>
+      <c r="P57">
+        <v>0.010505577100741858</v>
+      </c>
+      <c r="Q57">
+        <v>0.010505577100741858</v>
+      </c>
+      <c r="R57">
+        <v>0.010505577100741856</v>
+      </c>
+      <c r="S57">
+        <v>10</v>
+      </c>
+      <c r="T57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B58">
+        <v>0.033371225209873435</v>
+      </c>
+      <c r="C58">
+        <v>0.033371225209873435</v>
+      </c>
+      <c r="D58">
+        <v>0.033371225209873435</v>
+      </c>
+      <c r="E58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="F58">
+        <v>0.033371225209873526</v>
+      </c>
+      <c r="G58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="H58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="I58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="J58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="K58">
+        <v>0.46606039664202387</v>
+      </c>
+      <c r="L58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="M58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="N58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="O58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="P58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="Q58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="R58">
+        <v>0.033371225209873519</v>
+      </c>
+      <c r="S58">
+        <v>10</v>
+      </c>
+      <c r="T58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B59">
+        <v>0.00051993141194316508</v>
+      </c>
+      <c r="C59">
+        <v>0.00051993141194316508</v>
+      </c>
+      <c r="D59">
+        <v>0.00051993141194316508</v>
+      </c>
+      <c r="E59">
+        <v>0.0005199314119431744</v>
+      </c>
+      <c r="F59">
+        <v>0.0005199314119431756</v>
+      </c>
+      <c r="G59">
+        <v>0.0005199314119431756</v>
+      </c>
+      <c r="H59">
+        <v>0.0005199314119431756</v>
+      </c>
+      <c r="I59">
+        <v>0.0005199314119431756</v>
+      </c>
+      <c r="J59">
+        <v>0.0005199314119431756</v>
+      </c>
+      <c r="K59">
+        <v>0.00051993141194477436</v>
+      </c>
+      <c r="L59">
+        <v>0.99168109740890786</v>
+      </c>
+      <c r="M59">
+        <v>0.00051993141194317028</v>
+      </c>
+      <c r="N59">
+        <v>0.00051993141194317028</v>
+      </c>
+      <c r="O59">
+        <v>0.00051993141194317028</v>
+      </c>
+      <c r="P59">
+        <v>0.00051993141194317028</v>
+      </c>
+      <c r="Q59">
+        <v>0.00051993141194317028</v>
+      </c>
+      <c r="R59">
+        <v>0.00051993141194316855</v>
+      </c>
+      <c r="S59">
+        <v>11</v>
+      </c>
+      <c r="T59">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>11</v>
+      </c>
+      <c r="T60">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="C61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="D61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="E61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="F61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="G61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="H61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="I61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="J61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="K61">
+        <v>3.3650053511338478e-10</v>
+      </c>
+      <c r="L61">
+        <v>0.99999999966316644</v>
+      </c>
+      <c r="M61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="N61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="O61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="P61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="Q61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="R61">
+        <v>2.2204460492062751e-14</v>
+      </c>
+      <c r="S61">
+        <v>11</v>
+      </c>
+      <c r="T61">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="C62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="D62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="E62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="F62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="G62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="H62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="I62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="J62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="K62">
+        <v>2.2406875086961442e-13</v>
+      </c>
+      <c r="L62">
+        <v>0.99999999999944289</v>
+      </c>
+      <c r="M62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="N62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="O62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="P62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="Q62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="R62">
+        <v>2.2204460492501973e-14</v>
+      </c>
+      <c r="S62">
+        <v>11</v>
+      </c>
+      <c r="T62">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="C63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="D63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="E63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="F63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="G63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="H63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="I63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="J63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="K63">
+        <v>0.0054448889720863734</v>
+      </c>
+      <c r="L63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="M63">
+        <v>0.99455511102758065</v>
+      </c>
+      <c r="N63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="O63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="P63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="Q63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="R63">
+        <v>2.2200816149506311e-14</v>
+      </c>
+      <c r="S63">
+        <v>12</v>
+      </c>
+      <c r="T63">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="B64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="C64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="D64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="E64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="F64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="G64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="H64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="I64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="J64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="K64">
+        <v>0.00026859861065743975</v>
+      </c>
+      <c r="L64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="M64">
+        <v>0.99973140138900951</v>
+      </c>
+      <c r="N64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="O64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="P64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="Q64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="R64">
+        <v>2.2204109941722791e-14</v>
+      </c>
+      <c r="S64">
+        <v>12</v>
+      </c>
+      <c r="T64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="B65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="C65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="D65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="E65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="F65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="G65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="H65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="I65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="J65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="K65">
+        <v>0.017084228218847097</v>
+      </c>
+      <c r="L65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="M65">
+        <v>0.98291577178082001</v>
+      </c>
+      <c r="N65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="O65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="P65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="Q65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="R65">
+        <v>2.2200900568299042e-14</v>
+      </c>
+      <c r="S65">
+        <v>12</v>
+      </c>
+      <c r="T65">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="B66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="C66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="D66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="E66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="F66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="G66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="H66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="I66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="J66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="K66">
+        <v>0.0021890984232806813</v>
+      </c>
+      <c r="L66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="M66">
+        <v>0.99781090157638641</v>
+      </c>
+      <c r="N66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="O66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="P66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="Q66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="R66">
+        <v>2.2201619665929594e-14</v>
+      </c>
+      <c r="S66">
+        <v>12</v>
+      </c>
+      <c r="T66">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="B67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="C67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="D67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="E67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="F67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="G67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="H67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="I67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="J67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="K67">
+        <v>0.0013276560573005623</v>
+      </c>
+      <c r="L67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="M67">
+        <v>0.99867234394236637</v>
+      </c>
+      <c r="N67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="O67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="P67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="Q67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="R67">
+        <v>2.2202733169775447e-14</v>
+      </c>
+      <c r="S67">
+        <v>12</v>
+      </c>
+      <c r="T67">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="B68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="C68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="D68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="E68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="F68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="G68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="H68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="I68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="J68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="K68">
+        <v>0.067733727278102118</v>
+      </c>
+      <c r="L68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="M68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="N68">
+        <v>0.93226627272156481</v>
+      </c>
+      <c r="O68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="P68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="Q68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="R68">
+        <v>2.2201263279274219e-14</v>
+      </c>
+      <c r="S68">
+        <v>13</v>
+      </c>
+      <c r="T68">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="B69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="C69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="D69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="E69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="F69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="G69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="H69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="I69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="J69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="K69">
+        <v>0.07410927141854623</v>
+      </c>
+      <c r="L69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="M69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="N69">
+        <v>0.92589072858112076</v>
+      </c>
+      <c r="O69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="P69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="Q69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="R69">
+        <v>2.2201337556125877e-14</v>
+      </c>
+      <c r="S69">
+        <v>13</v>
+      </c>
+      <c r="T69">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="C70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="D70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="E70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="F70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="G70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="H70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="I70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="J70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="K70">
+        <v>0.053033336844520468</v>
+      </c>
+      <c r="L70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="M70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="N70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="O70">
+        <v>0.94696666315514655</v>
+      </c>
+      <c r="P70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="Q70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="R70">
+        <v>2.2201173823865737e-14</v>
+      </c>
+      <c r="S70">
+        <v>14</v>
+      </c>
+      <c r="T70">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="B71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="C71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="D71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="E71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="F71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="G71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="H71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="I71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="J71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="K71">
+        <v>0.010301945106770558</v>
+      </c>
+      <c r="L71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="M71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="N71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="O71">
+        <v>0.98969805489289642</v>
+      </c>
+      <c r="P71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="Q71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="R71">
+        <v>2.220085518681762e-14</v>
+      </c>
+      <c r="S71">
+        <v>14</v>
+      </c>
+      <c r="T71">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="B72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="C72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="D72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="E72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="F72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="G72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="H72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="I72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="J72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="K72">
+        <v>0.0027818045079837069</v>
+      </c>
+      <c r="L72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="M72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="N72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="O72">
+        <v>0.99721819549168333</v>
+      </c>
+      <c r="P72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="Q72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="R72">
+        <v>2.2200856848469523e-14</v>
+      </c>
+      <c r="S72">
+        <v>14</v>
+      </c>
+      <c r="T72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="C73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="D73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="E73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="F73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="G73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="H73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="I73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="J73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="K73">
+        <v>0.021263147352815766</v>
+      </c>
+      <c r="L73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="M73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="N73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="O73">
+        <v>0.97873685264685117</v>
+      </c>
+      <c r="P73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="Q73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="R73">
+        <v>2.2200943720172937e-14</v>
+      </c>
+      <c r="S73">
+        <v>14</v>
+      </c>
+      <c r="T73">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="B74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="C74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="D74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="E74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="F74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="G74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="H74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="I74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="J74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="K74">
+        <v>0.010100787683190249</v>
+      </c>
+      <c r="L74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="M74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="N74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="O74">
+        <v>0.98989921231647682</v>
+      </c>
+      <c r="P74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="Q74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="R74">
+        <v>2.2200850552352102e-14</v>
+      </c>
+      <c r="S74">
+        <v>14</v>
+      </c>
+      <c r="T74">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="B75">
+        <v>0.054076923520567872</v>
+      </c>
+      <c r="C75">
+        <v>0.054076923520567872</v>
+      </c>
+      <c r="D75">
+        <v>0.054076923520567872</v>
+      </c>
+      <c r="E75">
+        <v>0.054076923520567872</v>
+      </c>
+      <c r="F75">
+        <v>0.054076923520567872</v>
+      </c>
+      <c r="G75">
+        <v>0.054076923520567872</v>
+      </c>
+      <c r="H75">
+        <v>0.054076923520567872</v>
+      </c>
+      <c r="I75">
+        <v>0.054076923520567872</v>
+      </c>
+      <c r="J75">
+        <v>0.054076923520567872</v>
+      </c>
+      <c r="K75">
+        <v>0.0540769235233063</v>
+      </c>
+      <c r="L75">
+        <v>0.05407692352056867</v>
+      </c>
+      <c r="M75">
+        <v>0.05407692352056867</v>
+      </c>
+      <c r="N75">
+        <v>0.05407692352056867</v>
+      </c>
+      <c r="O75">
+        <v>0.05407692352056867</v>
+      </c>
+      <c r="P75">
+        <v>0.094423073594369661</v>
+      </c>
+      <c r="Q75">
+        <v>0.094423073594369661</v>
+      </c>
+      <c r="R75">
+        <v>0.054076923520568684</v>
+      </c>
+      <c r="S75">
+        <v>15</v>
+      </c>
+      <c r="T75">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="B76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="C76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="D76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="E76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="F76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="G76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="H76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="I76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="J76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="K76">
+        <v>7.880372028094914e-06</v>
+      </c>
+      <c r="L76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="M76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="N76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="O76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="P76">
+        <v>0.99999211962763879</v>
+      </c>
+      <c r="Q76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="R76">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="S76">
+        <v>15</v>
+      </c>
+      <c r="T76">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="B77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="C77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="D77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="E77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="F77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="G77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="H77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="I77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="J77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="K77">
+        <v>7.880372028094914e-06</v>
+      </c>
+      <c r="L77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="M77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="N77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="O77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="P77">
+        <v>0.99999211962763879</v>
+      </c>
+      <c r="Q77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="R77">
+        <v>2.2204450199835036e-14</v>
+      </c>
+      <c r="S77">
+        <v>15</v>
+      </c>
+      <c r="T77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="B78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="C78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="D78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="E78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="F78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="G78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="H78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="I78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="J78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="K78">
+        <v>2.583659343519804e-11</v>
+      </c>
+      <c r="L78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="M78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="N78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="O78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="P78">
+        <v>0.99999999997383038</v>
+      </c>
+      <c r="Q78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="R78">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="S78">
+        <v>15</v>
+      </c>
+      <c r="T78">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="B79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="C79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="D79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="E79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="F79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="G79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="H79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="I79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="J79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="K79">
+        <v>2.583659343519804e-11</v>
+      </c>
+      <c r="L79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="M79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="N79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="O79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="P79">
+        <v>0.99999999997383038</v>
+      </c>
+      <c r="Q79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="R79">
+        <v>2.2204460492468519e-14</v>
+      </c>
+      <c r="S79">
+        <v>15</v>
+      </c>
+      <c r="T79">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="C80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="D80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="E80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="F80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="G80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="H80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="I80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="J80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="K80">
+        <v>2.4466157436615724e-13</v>
+      </c>
+      <c r="L80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="M80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="N80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="O80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="P80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="Q80">
+        <v>0.99999999999942235</v>
+      </c>
+      <c r="R80">
+        <v>2.2204460492501948e-14</v>
+      </c>
+      <c r="S80">
+        <v>16</v>
+      </c>
+      <c r="T80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="C81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="D81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="E81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="F81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="G81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="H81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="I81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="J81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="K81">
+        <v>2.6834886979978996e-13</v>
+      </c>
+      <c r="L81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="M81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="N81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="O81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="P81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="Q81">
+        <v>0.99999999999939848</v>
+      </c>
+      <c r="R81">
+        <v>2.2204460492501913e-14</v>
+      </c>
+      <c r="S81">
+        <v>16</v>
+      </c>
+      <c r="T81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="B82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="C82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="D82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="E82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="F82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="G82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="H82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="I82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="J82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="K82">
+        <v>1.1946609960194963e-12</v>
+      </c>
+      <c r="L82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="M82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="N82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="O82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="P82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="Q82">
+        <v>0.99999999999847233</v>
+      </c>
+      <c r="R82">
+        <v>2.2204460492500704e-14</v>
+      </c>
+      <c r="S82">
+        <v>16</v>
+      </c>
+      <c r="T82">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="B83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="C83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="D83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="E83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="F83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="G83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="H83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="I83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="J83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="K83">
+        <v>3.4958301738054867e-12</v>
+      </c>
+      <c r="L83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="M83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="N83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="O83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="P83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="Q83">
+        <v>0.99999999999617106</v>
+      </c>
+      <c r="R83">
+        <v>2.2204460492497697e-14</v>
+      </c>
+      <c r="S83">
+        <v>16</v>
+      </c>
+      <c r="T83">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="C84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="D84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="E84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="F84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="G84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="H84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="I84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="J84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="K84">
+        <v>4.0275057549166613e-13</v>
+      </c>
+      <c r="L84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="M84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="N84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="O84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="P84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="Q84">
+        <v>0.99999999999926426</v>
+      </c>
+      <c r="R84">
+        <v>2.2204460492501739e-14</v>
+      </c>
+      <c r="S84">
+        <v>16</v>
+      </c>
+      <c r="T84">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="B85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="C85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="D85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="E85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="F85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="G85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="H85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="I85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="J85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="K85">
+        <v>1.5374691421582438e-09</v>
+      </c>
+      <c r="L85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="M85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="N85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="O85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="P85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="Q85">
+        <v>2.2204460490494104e-14</v>
+      </c>
+      <c r="R85">
+        <v>0.99999999846219778</v>
+      </c>
+      <c r="S85">
+        <v>17</v>
+      </c>
+      <c r="T85">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="B86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="C86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="D86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="E86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="F86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="G86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="H86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="I86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="J86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="K86">
+        <v>3.7867182832422553e-09</v>
+      </c>
+      <c r="L86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="M86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="N86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="O86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="P86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="Q86">
+        <v>2.2204460487556263e-14</v>
+      </c>
+      <c r="R86">
+        <v>0.99999999621294866</v>
+      </c>
+      <c r="S86">
+        <v>17</v>
+      </c>
+      <c r="T86">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="B87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="C87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="D87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="E87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="F87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="G87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="H87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="I87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="J87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="K87">
+        <v>7.8347269731979702e-13</v>
+      </c>
+      <c r="L87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="M87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="N87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="O87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="P87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="Q87">
+        <v>2.2204460492501238e-14</v>
+      </c>
+      <c r="R87">
+        <v>0.99999999999888345</v>
+      </c>
+      <c r="S87">
+        <v>17</v>
+      </c>
+      <c r="T87">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="C88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="D88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="E88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="F88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="G88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="H88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="I88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="J88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="K88">
+        <v>1.5421506812982333e-09</v>
+      </c>
+      <c r="L88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="M88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="N88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="O88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="P88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="Q88">
+        <v>2.2204460490487995e-14</v>
+      </c>
+      <c r="R88">
+        <v>0.99999999845751619</v>
+      </c>
+      <c r="S88">
+        <v>17</v>
+      </c>
+      <c r="T88">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="B89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="C89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="D89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="E89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="F89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="G89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="H89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="I89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="J89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="K89">
+        <v>8.985250684644897e-10</v>
+      </c>
+      <c r="L89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="M89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="N89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="O89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="P89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="Q89">
+        <v>2.2204460491328665e-14</v>
+      </c>
+      <c r="R89">
+        <v>0.9999999991011419</v>
+      </c>
+      <c r="S89">
+        <v>17</v>
+      </c>
+      <c r="T89">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>